--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DA7A2-06C4-413C-8A46-63BA84CCF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E64FAB-B0A3-4604-9A39-77C232C21243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{CFC59F7C-A7E9-4DCF-A179-85D48981585F}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="588">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1402,10 +1402,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你20、30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝色胶囊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1442,10 +1438,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>exclusive[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不想罢了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1714,10 +1706,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黄帝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>戒律</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1980,6 +1968,331 @@
   </si>
   <si>
     <t>艰苦奋斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclude[]</t>
+  </si>
+  <si>
+    <t>exclusive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜值+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很受</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20岁或30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还有别的名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆周率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成随机白色天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续可导</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有其他人格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝妙的天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可惜这里写不下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成橙色天赋或死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁时体质-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗言很有名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财天赋较高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁时颜值-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[30]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳间福袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更可能开出好天赋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1142</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1139</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1141</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1048</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1065</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴寓言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能发现世界的真相</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋综合判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋不能多于5个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺贝尔奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二号橙色转盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有悲剧时，所有属性+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机抽一部剧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流芳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百世</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[2028,2029,2030,2031]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈姆雷特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尔王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥赛罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲夏夜之梦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>威尼斯商人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二夜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆大欢喜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐-2</t>
+  </si>
+  <si>
+    <t>快乐-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+2</t>
+  </si>
+  <si>
+    <t>快乐+2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐+114509</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永不言弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你永远不会放弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得过诺贝尔奖可复活一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一条命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死者苏生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有属性-2，加一条命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔的交易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1033*6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1147*0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1148</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2384,33 +2697,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK148"/>
+  <dimension ref="A1:AL186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AG140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="I143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI146" sqref="AI146"/>
+      <selection pane="bottomRight" activeCell="AB172" sqref="AB172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="12" width="13.5546875" style="1" customWidth="1"/>
-    <col min="13" max="29" width="23.33203125" style="1" customWidth="1"/>
-    <col min="30" max="32" width="18.88671875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="19.33203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="21.88671875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="19.109375" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="25.44140625" style="1"/>
+    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
+    <col min="8" max="13" width="13.5" style="1" customWidth="1"/>
+    <col min="14" max="30" width="23.375" style="1" customWidth="1"/>
+    <col min="31" max="33" width="18.875" style="6" customWidth="1"/>
+    <col min="34" max="34" width="19.375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="25.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2427,103 +2740,106 @@
         <v>270</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>369</v>
+        <v>485</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2540,103 +2856,106 @@
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>368</v>
+        <v>483</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2644,13 +2963,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2658,13 +2977,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2677,17 +2996,17 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="AD5" s="6" t="s">
+      <c r="AE5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="AF5" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2700,17 +3019,17 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="AD6" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="AE6" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2724,12 +3043,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>158</v>
@@ -2737,11 +3056,11 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2754,11 +3073,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2771,11 +3090,11 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2788,11 +3107,11 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2805,20 +3124,20 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="6" t="s">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG12" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="AE12" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2832,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2845,17 +3164,17 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AE14" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG14" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="AE14" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2868,17 +3187,17 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AE15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG15" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="AE15" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF15" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2891,20 +3210,20 @@
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>386</v>
+      <c r="I16" s="1">
+        <v>1</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF16" s="6" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG16" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2918,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2932,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2946,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2959,9 +3278,6 @@
       <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
@@ -2974,8 +3290,11 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2988,11 +3307,11 @@
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3005,11 +3324,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3022,14 +3341,14 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
       <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3043,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3056,9 +3375,6 @@
       <c r="E25" s="1">
         <v>3</v>
       </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
       <c r="H25" s="1">
         <v>2</v>
       </c>
@@ -3071,8 +3387,11 @@
       <c r="K25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3085,17 +3404,17 @@
       <c r="E26" s="1">
         <v>2</v>
       </c>
-      <c r="AD26" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="AE26" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AF26" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG26" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3108,20 +3427,20 @@
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="AD27" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="AE27" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF27" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AH27" s="1">
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3134,11 +3453,11 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="AD28" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3151,11 +3470,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="AD29" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3169,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3183,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3197,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,11 +3529,11 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -3227,9 +3546,6 @@
       <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="1">
-        <v>-1</v>
-      </c>
       <c r="H34" s="1">
         <v>-1</v>
       </c>
@@ -3242,8 +3558,11 @@
       <c r="K34" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3256,11 +3575,11 @@
       <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3273,11 +3592,11 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3290,11 +3609,11 @@
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3307,11 +3626,11 @@
       <c r="E38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3325,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3339,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3353,12 +3672,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>202</v>
@@ -3367,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3380,11 +3699,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="AD43" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE43" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3398,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3406,13 +3725,13 @@
         <v>207</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3426,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3440,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3453,11 +3772,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="AD48" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE48" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3471,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3485,7 +3804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,11 +3820,11 @@
       <c r="E51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3521,11 +3840,11 @@
       <c r="E52" s="1">
         <v>0</v>
       </c>
-      <c r="K52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3541,14 +3860,14 @@
       <c r="E53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -3564,11 +3883,11 @@
       <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -3584,11 +3903,11 @@
       <c r="E55" s="1">
         <v>0</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -3604,11 +3923,11 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="J56" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3624,11 +3943,11 @@
       <c r="E57" s="1">
         <v>0</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3644,11 +3963,11 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="K58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3664,11 +3983,11 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="I59" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -3684,11 +4003,11 @@
       <c r="E60" s="1">
         <v>0</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3696,19 +4015,19 @@
         <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3716,19 +4035,19 @@
         <v>248</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
-      <c r="K62" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3736,19 +4055,19 @@
         <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="I63" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3764,11 +4083,11 @@
       <c r="E64" s="1">
         <v>0</v>
       </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3781,11 +4100,11 @@
       <c r="E65" s="1">
         <v>0</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -3798,11 +4117,11 @@
       <c r="E66" s="1">
         <v>3</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -3816,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -3832,11 +4151,11 @@
       <c r="E68" s="1">
         <v>0</v>
       </c>
-      <c r="H68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3852,11 +4171,11 @@
       <c r="E69" s="1">
         <v>1</v>
       </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -3872,11 +4191,11 @@
       <c r="E70" s="1">
         <v>0</v>
       </c>
-      <c r="J70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -3892,11 +4211,11 @@
       <c r="E71" s="1">
         <v>0</v>
       </c>
-      <c r="H71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -3912,11 +4231,11 @@
       <c r="E72" s="1">
         <v>0</v>
       </c>
-      <c r="G72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3930,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -3944,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -3974,11 +4293,11 @@
       <c r="E76" s="1">
         <v>1</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -3994,11 +4313,11 @@
       <c r="E77" s="1">
         <v>0</v>
       </c>
-      <c r="I77" s="1">
+      <c r="J77" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4014,11 +4333,11 @@
       <c r="E78" s="1">
         <v>1</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -4034,11 +4353,11 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4054,11 +4373,11 @@
       <c r="E80" s="1">
         <v>0</v>
       </c>
-      <c r="J80" s="1">
+      <c r="K80" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -4074,11 +4393,11 @@
       <c r="E81" s="1">
         <v>0</v>
       </c>
-      <c r="I81" s="1">
+      <c r="J81" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -4094,11 +4413,11 @@
       <c r="E82" s="1">
         <v>0</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -4114,9 +4433,6 @@
       <c r="E83" s="1">
         <v>0</v>
       </c>
-      <c r="H83" s="1">
-        <v>1</v>
-      </c>
       <c r="I83" s="1">
         <v>1</v>
       </c>
@@ -4126,8 +4442,11 @@
       <c r="K83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4143,9 +4462,6 @@
       <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="H84" s="1">
-        <v>2</v>
-      </c>
       <c r="I84" s="1">
         <v>2</v>
       </c>
@@ -4155,8 +4471,11 @@
       <c r="K84" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4172,9 +4491,6 @@
       <c r="E85" s="1">
         <v>2</v>
       </c>
-      <c r="H85" s="1">
-        <v>3</v>
-      </c>
       <c r="I85" s="1">
         <v>3</v>
       </c>
@@ -4184,8 +4500,11 @@
       <c r="K85" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4198,17 +4517,17 @@
       <c r="E86" s="1">
         <v>0</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <v>-2</v>
       </c>
-      <c r="G86" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD86" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE86" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4221,17 +4540,17 @@
       <c r="E87" s="1">
         <v>1</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>-3</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>5</v>
       </c>
-      <c r="AD87" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE87" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4244,14 +4563,14 @@
       <c r="E88" s="1">
         <v>0</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>-10</v>
       </c>
-      <c r="AD88" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE88" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4267,11 +4586,11 @@
       <c r="E89" s="1">
         <v>1</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4287,11 +4606,11 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
-      <c r="I90" s="1">
+      <c r="J90" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4307,11 +4626,11 @@
       <c r="E91" s="1">
         <v>0</v>
       </c>
-      <c r="J91" s="1">
+      <c r="K91" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4327,20 +4646,20 @@
       <c r="E92" s="1">
         <v>0</v>
       </c>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
       <c r="H92" s="1">
         <v>1</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
       </c>
-      <c r="K92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4348,7 +4667,7 @@
         <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>328</v>
@@ -4356,20 +4675,20 @@
       <c r="E93" s="1">
         <v>1</v>
       </c>
-      <c r="G93" s="1">
-        <v>2</v>
-      </c>
       <c r="H93" s="1">
         <v>2</v>
       </c>
       <c r="I93" s="1">
         <v>2</v>
       </c>
-      <c r="K93" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="1">
+        <v>2</v>
+      </c>
+      <c r="L93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4385,20 +4704,20 @@
       <c r="E94" s="1">
         <v>0</v>
       </c>
-      <c r="G94" s="1">
-        <v>1</v>
-      </c>
       <c r="H94" s="1">
         <v>1</v>
       </c>
-      <c r="J94" s="1">
+      <c r="I94" s="1">
         <v>1</v>
       </c>
       <c r="K94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4411,14 +4730,14 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <v>-2</v>
       </c>
-      <c r="K95" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4431,11 +4750,11 @@
       <c r="E96" s="1">
         <v>0</v>
       </c>
-      <c r="I96" s="1">
+      <c r="J96" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4451,10 +4770,7 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="G97" s="1">
-        <v>1</v>
-      </c>
-      <c r="I97" s="1">
+      <c r="H97" s="1">
         <v>1</v>
       </c>
       <c r="J97" s="1">
@@ -4463,8 +4779,11 @@
       <c r="K97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4480,9 +4799,6 @@
       <c r="E98" s="1">
         <v>0</v>
       </c>
-      <c r="H98" s="1">
-        <v>1</v>
-      </c>
       <c r="I98" s="1">
         <v>1</v>
       </c>
@@ -4492,8 +4808,11 @@
       <c r="K98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4509,9 +4828,6 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
-      <c r="H99" s="1">
-        <v>2</v>
-      </c>
       <c r="I99" s="1">
         <v>2</v>
       </c>
@@ -4521,13 +4837,16 @@
       <c r="K99" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>346</v>
@@ -4538,10 +4857,7 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-      <c r="G100" s="1">
-        <v>2</v>
-      </c>
-      <c r="I100" s="1">
+      <c r="H100" s="1">
         <v>2</v>
       </c>
       <c r="J100" s="1">
@@ -4550,8 +4866,11 @@
       <c r="K100" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4564,14 +4883,14 @@
       <c r="E101" s="1">
         <v>0</v>
       </c>
-      <c r="G101" s="1">
-        <v>2</v>
-      </c>
       <c r="H101" s="1">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4584,14 +4903,14 @@
       <c r="E102" s="1">
         <v>0</v>
       </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="I102" s="1">
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4607,9 +4926,6 @@
       <c r="E103" s="1">
         <v>0</v>
       </c>
-      <c r="G103" s="1">
-        <v>1</v>
-      </c>
       <c r="H103" s="1">
         <v>1</v>
       </c>
@@ -4622,8 +4938,11 @@
       <c r="K103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -4639,9 +4958,6 @@
       <c r="E104" s="1">
         <v>1</v>
       </c>
-      <c r="G104" s="1">
-        <v>2</v>
-      </c>
       <c r="H104" s="1">
         <v>2</v>
       </c>
@@ -4654,547 +4970,547 @@
       <c r="K104" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E105" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E106" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>359</v>
+        <v>516</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E108" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE115" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD115" s="6" t="s">
+      <c r="AF115" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG115" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="AE115" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF115" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="AG115" s="1">
+      <c r="AH115" s="1">
         <v>1027</v>
       </c>
-      <c r="AH115" s="1">
+      <c r="AI115" s="1">
         <v>1041</v>
       </c>
-      <c r="AI115" s="1">
+      <c r="AJ115" s="1">
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E119" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>-20</v>
+      </c>
+      <c r="AE124" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF124" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="AG124" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E124" s="1">
-        <v>1</v>
-      </c>
-      <c r="F124" s="1">
-        <v>-20</v>
-      </c>
-      <c r="AD124" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE124" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AF124" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="125" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B127" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="B131" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:35" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="E132" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="B133" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E136" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E137" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
       </c>
-      <c r="K138" s="1">
+      <c r="L138" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
       </c>
-      <c r="G139" s="1">
-        <v>2</v>
-      </c>
       <c r="H139" s="1">
         <v>2</v>
       </c>
@@ -5207,266 +5523,1301 @@
       <c r="K139" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L139" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>1138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E140" s="1">
         <v>0</v>
       </c>
-      <c r="L140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
       </c>
-      <c r="L141" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M141" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E142" s="1">
         <v>2</v>
       </c>
-      <c r="L142" s="1">
+      <c r="M142" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E143" s="1">
         <v>3</v>
       </c>
-      <c r="L143" s="1">
+      <c r="M143" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E144" s="1">
         <v>0</v>
       </c>
-      <c r="M144" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD144" s="6" t="s">
-        <v>389</v>
+      <c r="N144" s="1">
+        <v>1</v>
       </c>
       <c r="AE144" s="6" t="s">
         <v>387</v>
       </c>
       <c r="AF144" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG144" s="1">
+        <v>385</v>
+      </c>
+      <c r="AG144" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH144" s="1">
         <v>1110</v>
       </c>
-      <c r="AH144" s="1">
+      <c r="AI144" s="1">
         <v>1003</v>
       </c>
-      <c r="AI144" s="1">
+      <c r="AJ144" s="1">
         <v>1004</v>
       </c>
-      <c r="AJ144" s="1">
+      <c r="AK144" s="1">
         <v>1124</v>
       </c>
-      <c r="AK144" s="1">
+      <c r="AL144" s="1">
         <v>1125</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
       </c>
-      <c r="M145" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD145" s="6" t="s">
-        <v>389</v>
+      <c r="N145" s="1">
+        <v>2</v>
       </c>
       <c r="AE145" s="6" t="s">
         <v>387</v>
       </c>
       <c r="AF145" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG145" s="1">
+        <v>385</v>
+      </c>
+      <c r="AG145" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH145" s="1">
         <v>1110</v>
       </c>
-      <c r="AH145" s="1">
+      <c r="AI145" s="1">
         <v>1003</v>
       </c>
-      <c r="AI145" s="1">
+      <c r="AJ145" s="1">
         <v>1004</v>
       </c>
-      <c r="AJ145" s="1">
+      <c r="AK145" s="1">
         <v>1124</v>
       </c>
-      <c r="AK145" s="1">
+      <c r="AL145" s="1">
         <v>1125</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E146" s="1">
         <v>2</v>
       </c>
-      <c r="M146" s="1">
+      <c r="N146" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="N147" s="6">
+      <c r="O147" s="6">
         <v>1138</v>
       </c>
-      <c r="O147" s="6">
+      <c r="P147" s="6">
         <v>1133</v>
       </c>
-      <c r="P147" s="6">
+      <c r="Q147" s="6">
         <v>1125</v>
       </c>
-      <c r="Q147" s="6">
+      <c r="R147" s="6">
         <v>1128</v>
       </c>
-      <c r="R147" s="6">
+      <c r="S147" s="6">
         <v>1129</v>
       </c>
-      <c r="S147" s="6">
+      <c r="T147" s="6">
         <v>1131</v>
       </c>
-      <c r="T147" s="6">
+      <c r="U147" s="6">
         <v>1111</v>
       </c>
-      <c r="U147" s="6">
+      <c r="V147" s="6">
         <v>1108</v>
       </c>
-      <c r="V147" s="6">
+      <c r="W147" s="6">
         <v>1071</v>
       </c>
-      <c r="W147" s="6">
+      <c r="X147" s="6">
         <v>1072</v>
       </c>
-      <c r="X147" s="6">
+      <c r="Y147" s="6">
         <v>1044</v>
       </c>
-      <c r="Y147" s="6">
+      <c r="Z147" s="6">
         <v>1039</v>
       </c>
-      <c r="Z147" s="6">
+      <c r="AA147" s="6">
         <v>1040</v>
       </c>
-      <c r="AA147" s="6">
+      <c r="AB147" s="6">
         <v>1033</v>
       </c>
-      <c r="AB147" s="6">
+      <c r="AC147" s="6">
         <v>1031</v>
       </c>
-      <c r="AC147" s="6">
+      <c r="AD147" s="6">
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1146</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E150" s="1">
+        <v>2</v>
+      </c>
+      <c r="H150" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I150" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J150" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K150" s="1">
+        <v>-2</v>
+      </c>
+      <c r="L150" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E151" s="1">
+        <v>2</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="K151" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E152" s="1">
+        <v>2</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="J152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3.1415926000000001</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="N156" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE156" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF156" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG156" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH156" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI156" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ156" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK156" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL156" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1</v>
+      </c>
+      <c r="H157" s="1">
+        <v>1</v>
+      </c>
+      <c r="I157" s="1">
+        <v>1</v>
+      </c>
+      <c r="J157" s="1">
+        <v>1</v>
+      </c>
+      <c r="L157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="H158" s="1">
+        <v>1</v>
+      </c>
+      <c r="I158" s="1">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1">
+        <v>1</v>
+      </c>
+      <c r="L158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+      <c r="N159" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE159" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF159" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG159" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH159" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI159" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ159" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK159" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL159" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="N160" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE160" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF160" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG160" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH160" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI160" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ160" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK160" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL160" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="N161" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE161" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF161" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG161" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH161" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI161" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ161" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK161" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL161" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="N162" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE162" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF162" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG162" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH162" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI162" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ162" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK162" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL162" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="N163" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE163" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF163" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG163" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH163" s="1">
+        <v>1110</v>
+      </c>
+      <c r="AI163" s="1">
+        <v>1003</v>
+      </c>
+      <c r="AJ163" s="1">
+        <v>1004</v>
+      </c>
+      <c r="AK163" s="1">
+        <v>1124</v>
+      </c>
+      <c r="AL163" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E165" s="1">
+        <v>3</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1</v>
+      </c>
+      <c r="G165" s="1">
+        <v>1</v>
+      </c>
+      <c r="H165" s="1">
+        <v>5</v>
+      </c>
+      <c r="I165" s="1">
+        <v>1</v>
+      </c>
+      <c r="J165" s="1">
+        <v>1</v>
+      </c>
+      <c r="K165" s="1">
+        <v>2</v>
+      </c>
+      <c r="L165" s="1">
+        <v>1</v>
+      </c>
+      <c r="M165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E166" s="1">
+        <v>2</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="O166" s="1">
+        <v>1141</v>
+      </c>
+      <c r="P166" s="1">
+        <v>1135</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>1114</v>
+      </c>
+      <c r="R166" s="1">
+        <v>1023</v>
+      </c>
+      <c r="S166" s="1">
+        <v>1048</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="U166" s="1">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="K168" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E148" s="1">
-        <v>1</v>
-      </c>
-      <c r="N148" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="O148" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q148" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R148" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="S148" s="1" t="s">
-        <v>507</v>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="I169" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="J170" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E171" s="1">
+        <v>2</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="O171" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="P171" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q171" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="R171" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="S171" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="T171" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="U171" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="V171" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="W171" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="X171" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y171" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z171" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA171" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB171" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="AC171" s="6"/>
+      <c r="AD171" s="6"/>
+    </row>
+    <row r="172" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E174" s="1">
+        <v>2</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E175" s="1">
+        <v>2</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="N175" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E176" s="1">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="H176" s="1">
+        <v>1</v>
+      </c>
+      <c r="I176" s="1">
+        <v>1</v>
+      </c>
+      <c r="J176" s="1">
+        <v>1</v>
+      </c>
+      <c r="K176" s="1">
+        <v>1</v>
+      </c>
+      <c r="L176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="O177" s="1">
+        <v>2028</v>
+      </c>
+      <c r="P177" s="1">
+        <v>2029</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>2030</v>
+      </c>
+      <c r="R177" s="1">
+        <v>2031</v>
+      </c>
+      <c r="S177" s="1">
+        <v>2032</v>
+      </c>
+      <c r="T177" s="1">
+        <v>2033</v>
+      </c>
+      <c r="U177" s="1">
+        <v>2034</v>
+      </c>
+      <c r="V177" s="1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
+        <v>1</v>
+      </c>
+      <c r="H178" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E179" s="1">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="H179" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="H180" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="H181" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="H182" s="1">
+        <v>114509</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="H183" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="H184" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1</v>
+      </c>
+      <c r="H185" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E186" s="1">
+        <v>2</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\workspace\games\lifeRestart\data\zh-cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E64FAB-B0A3-4604-9A39-77C232C21243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499080E-75D6-4741-BCAF-8409240F28AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="2080" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="589">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2010,10 +2010,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你20岁或30岁时无事发生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>树人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2293,6 +2289,14 @@
   </si>
   <si>
     <t>1148</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你20岁和30岁时无事发生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE?[20,30]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2700,30 +2704,30 @@
   <dimension ref="A1:AL186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB172" sqref="AB172"/>
+      <selection pane="bottomRight" activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="39.65" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" style="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
     <col min="8" max="13" width="13.5" style="1" customWidth="1"/>
-    <col min="14" max="30" width="23.375" style="1" customWidth="1"/>
-    <col min="31" max="33" width="18.875" style="6" customWidth="1"/>
-    <col min="34" max="34" width="19.375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="21.875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="19.125" style="1" customWidth="1"/>
+    <col min="14" max="30" width="23.33203125" style="1" customWidth="1"/>
+    <col min="31" max="33" width="18.83203125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.08203125" style="1" customWidth="1"/>
     <col min="37" max="16384" width="25.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2969,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3137,7 +3141,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3174,7 +3178,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3197,7 +3201,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -3251,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3294,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -3311,7 +3315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3328,7 +3332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3348,7 +3352,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3362,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3440,7 +3444,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -3562,7 +3566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3613,7 +3617,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3703,7 +3707,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3745,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3759,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3790,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3867,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -3907,7 +3911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -4007,7 +4011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -4047,7 +4051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -4087,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -4215,7 +4219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -4235,7 +4239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -4263,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -4277,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -4297,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -4317,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4337,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -4357,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -4397,7 +4401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4527,7 +4531,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4570,7 +4574,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4590,7 +4594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4630,7 +4634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4688,7 +4692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4783,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4812,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4841,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4870,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4910,7 +4914,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -4974,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -4991,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -5016,16 +5020,16 @@
         <v>359</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>498</v>
+        <v>588</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -5039,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -5081,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -5095,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -5109,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -5172,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -5200,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -5228,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>402</v>
       </c>
@@ -5242,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>403</v>
       </c>
@@ -5256,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>404</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>405</v>
       </c>
@@ -5296,7 +5300,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>406</v>
       </c>
@@ -5310,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>407</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>408</v>
       </c>
@@ -5338,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>409</v>
       </c>
@@ -5352,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>410</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>411</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>431</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>432</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>449</v>
       </c>
@@ -5422,7 +5426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
@@ -5495,7 +5499,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
@@ -5527,7 +5531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1138</v>
       </c>
@@ -5544,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
@@ -5561,7 +5565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
@@ -5578,7 +5582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
@@ -5595,7 +5599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="145" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
@@ -5677,7 +5681,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="146" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>1146</v>
       </c>
@@ -5788,32 +5792,32 @@
         <v>504</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="149" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>1147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E149" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>1148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E150" s="1">
         <v>2</v>
@@ -5834,7 +5838,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="151" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2001</v>
       </c>
@@ -5854,7 +5858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2002</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2003</v>
       </c>
@@ -5891,16 +5895,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>2004</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="E154" s="1">
         <v>0</v>
       </c>
@@ -5908,12 +5912,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2005</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C155" s="1">
         <v>3.1415926000000001</v>
@@ -5925,15 +5929,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>2006</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -5969,15 +5973,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="157" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>2007</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>328</v>
@@ -6001,15 +6005,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>2008</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>354</v>
@@ -6036,15 +6040,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>2009</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E159" s="1">
         <v>0</v>
@@ -6080,15 +6084,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="160" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>2010</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E160" s="1">
         <v>0</v>
@@ -6124,15 +6128,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="161" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2011</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E161" s="1">
         <v>0</v>
@@ -6168,15 +6172,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="162" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2012</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E162" s="1">
         <v>0</v>
@@ -6212,15 +6216,15 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="163" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>2013</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E163" s="1">
         <v>0</v>
@@ -6256,16 +6260,16 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="164" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>2014</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="E164" s="1">
         <v>0</v>
       </c>
@@ -6273,15 +6277,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>2015</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
@@ -6311,15 +6315,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>2016</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="E166" s="1">
         <v>2</v>
@@ -6343,21 +6347,21 @@
         <v>1048</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="U166" s="1">
         <v>1147</v>
       </c>
     </row>
-    <row r="167" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>2017</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E167" s="1">
         <v>0</v>
@@ -6366,18 +6370,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>2018</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="D168" s="1" t="s">
-        <v>363</v>
+        <v>497</v>
       </c>
       <c r="E168" s="1">
         <v>0</v>
@@ -6389,15 +6393,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="169" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>2019</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>498</v>
@@ -6412,18 +6416,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>2020</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="E170" s="1">
         <v>0</v>
@@ -6435,77 +6439,77 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>2021</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="E171" s="1">
+        <v>2</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="O171" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="E171" s="1">
-        <v>2</v>
-      </c>
-      <c r="F171" s="1">
-        <v>1</v>
-      </c>
-      <c r="O171" s="6" t="s">
+      <c r="P171" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="P171" s="6" t="s">
+      <c r="Q171" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Q171" s="6" t="s">
+      <c r="R171" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="R171" s="6" t="s">
+      <c r="S171" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="S171" s="6" t="s">
+      <c r="T171" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="T171" s="6" t="s">
+      <c r="U171" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="U171" s="6" t="s">
+      <c r="V171" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="V171" s="6" t="s">
+      <c r="W171" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="W171" s="6" t="s">
+      <c r="X171" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X171" s="6" t="s">
+      <c r="Y171" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="Y171" s="6" t="s">
+      <c r="Z171" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="Z171" s="6" t="s">
+      <c r="AA171" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="AA171" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="AB171" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AC171" s="6"/>
       <c r="AD171" s="6"/>
     </row>
-    <row r="172" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>2022</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="E172" s="1">
         <v>1</v>
       </c>
@@ -6513,16 +6517,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>2023</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="E173" s="1">
         <v>0</v>
       </c>
@@ -6530,15 +6534,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>2024</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E174" s="1">
         <v>2</v>
@@ -6547,12 +6551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>2025</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>478</v>
@@ -6567,18 +6571,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:38" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>2026</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -6602,15 +6606,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>2027</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -6643,15 +6647,15 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>2028</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -6663,15 +6667,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>2029</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -6683,15 +6687,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>2030</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -6703,15 +6707,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>2031</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -6723,15 +6727,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>2032</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -6743,15 +6747,15 @@
         <v>114509</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>2033</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -6763,15 +6767,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>2034</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -6783,15 +6787,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>2035</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
@@ -6803,15 +6807,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2036</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="E186" s="1">
         <v>2</v>
